--- a/dynamics/src/dynamics/train_results/DDQN_outputs/case2/6/DDQN-6-variable-20230521-064836/models/tested_state_traj/tested_state_traj_3_0-A-10.xlsx
+++ b/dynamics/src/dynamics/train_results/DDQN_outputs/case2/6/DDQN-6-variable-20230521-064836/models/tested_state_traj/tested_state_traj_3_0-A-10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,28 +426,28 @@
         <v>7</v>
       </c>
       <c r="B1" t="n">
-        <v>70.49444578511469</v>
+        <v>77.03350004167854</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>0.02169049215491954</v>
+        <v>0.02270639552515607</v>
       </c>
       <c r="E1" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F1" t="n">
-        <v>21.86460677046168</v>
+        <v>20.41244353794567</v>
       </c>
       <c r="G1" t="n">
         <v>30.4</v>
       </c>
       <c r="I1" t="n">
-        <v>5.1</v>
+        <v>25.3</v>
       </c>
       <c r="J1" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="2">
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>70.49444578511469</v>
+        <v>77.03350004167854</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02169049215491954</v>
+        <v>0.02270639552515607</v>
       </c>
       <c r="E2" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F2" t="n">
-        <v>21.86460677046168</v>
+        <v>20.41244353794567</v>
       </c>
       <c r="G2" t="n">
         <v>50.6</v>
@@ -476,7 +476,7 @@
         <v>25.3</v>
       </c>
       <c r="J2" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="3">
@@ -484,19 +484,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>70.68790170528636</v>
+        <v>76.81885942737297</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02111428542157593</v>
+        <v>0.02204748480724437</v>
       </c>
       <c r="E3" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F3" t="n">
-        <v>20.86460677046168</v>
+        <v>19.41244353794567</v>
       </c>
       <c r="G3" t="n">
         <v>50.6</v>
@@ -505,7 +505,7 @@
         <v>25.3</v>
       </c>
       <c r="J3" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="4">
@@ -513,19 +513,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>69.53226729077859</v>
+        <v>76.53642098786403</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02051707444013215</v>
+        <v>0.02137126547977227</v>
       </c>
       <c r="E4" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F4" t="n">
-        <v>19.86460677046168</v>
+        <v>18.41244353794567</v>
       </c>
       <c r="G4" t="n">
         <v>50.6</v>
@@ -534,7 +534,7 @@
         <v>25.3</v>
       </c>
       <c r="J4" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>69.59791605257698</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01989833943509195</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E5" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F5" t="n">
-        <v>18.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G5" t="n">
         <v>50.6</v>
@@ -563,7 +563,7 @@
         <v>25.3</v>
       </c>
       <c r="J5" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6">
@@ -571,28 +571,28 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>69.6112503030252</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01925836303326388</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E6" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F6" t="n">
-        <v>17.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G6" t="n">
-        <v>50.6</v>
+        <v>70</v>
       </c>
       <c r="I6" t="n">
         <v>25.3</v>
       </c>
       <c r="J6" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="7">
@@ -600,28 +600,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E7" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F7" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G7" t="n">
-        <v>50.6</v>
+        <v>70</v>
       </c>
       <c r="I7" t="n">
         <v>25.3</v>
       </c>
       <c r="J7" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
@@ -629,28 +629,28 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E8" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F8" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G8" t="n">
         <v>70</v>
       </c>
       <c r="I8" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J8" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E9" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F9" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G9" t="n">
         <v>70</v>
       </c>
       <c r="I9" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J9" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10">
@@ -687,28 +687,28 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E10" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F10" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G10" t="n">
         <v>70</v>
       </c>
       <c r="I10" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J10" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E11" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F11" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G11" t="n">
         <v>70</v>
       </c>
       <c r="I11" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J11" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="12">
@@ -745,28 +745,28 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E12" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F12" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G12" t="n">
         <v>70</v>
       </c>
       <c r="I12" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J12" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13">
@@ -774,28 +774,28 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E13" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F13" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G13" t="n">
         <v>70</v>
       </c>
       <c r="I13" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J13" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="14">
@@ -803,28 +803,28 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E14" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F14" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G14" t="n">
         <v>70</v>
       </c>
       <c r="I14" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J14" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="15">
@@ -832,28 +832,28 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E15" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F15" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G15" t="n">
         <v>70</v>
       </c>
       <c r="I15" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J15" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="16">
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E16" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F16" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G16" t="n">
         <v>70</v>
       </c>
       <c r="I16" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J16" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="17">
@@ -890,28 +890,28 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E17" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F17" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G17" t="n">
         <v>70</v>
       </c>
       <c r="I17" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J17" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="18">
@@ -919,28 +919,28 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E18" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F18" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G18" t="n">
         <v>70</v>
       </c>
       <c r="I18" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J18" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="19">
@@ -948,28 +948,28 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E19" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F19" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G19" t="n">
         <v>70</v>
       </c>
       <c r="I19" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J19" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20">
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E20" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F20" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G20" t="n">
         <v>70</v>
       </c>
       <c r="I20" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J20" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="21">
@@ -1006,28 +1006,28 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E21" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F21" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G21" t="n">
         <v>70</v>
       </c>
       <c r="I21" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J21" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="22">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E22" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F22" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G22" t="n">
         <v>70</v>
       </c>
       <c r="I22" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J22" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="23">
@@ -1064,28 +1064,28 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E23" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F23" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G23" t="n">
         <v>70</v>
       </c>
       <c r="I23" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J23" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="24">
@@ -1093,28 +1093,28 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E24" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F24" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G24" t="n">
         <v>70</v>
       </c>
       <c r="I24" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J24" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="25">
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E25" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F25" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G25" t="n">
         <v>70</v>
       </c>
       <c r="I25" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J25" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="26">
@@ -1151,28 +1151,28 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E26" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F26" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G26" t="n">
         <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J26" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="27">
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E27" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F27" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G27" t="n">
         <v>70</v>
       </c>
       <c r="I27" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J27" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="28">
@@ -1209,28 +1209,28 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E28" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F28" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G28" t="n">
         <v>70</v>
       </c>
       <c r="I28" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J28" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="29">
@@ -1238,28 +1238,28 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E29" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F29" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G29" t="n">
         <v>70</v>
       </c>
       <c r="I29" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J29" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="30">
@@ -1267,28 +1267,28 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E30" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F30" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G30" t="n">
         <v>70</v>
       </c>
       <c r="I30" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J30" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="31">
@@ -1296,28 +1296,28 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E31" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F31" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G31" t="n">
         <v>70</v>
       </c>
       <c r="I31" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J31" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="32">
@@ -1325,28 +1325,28 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E32" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F32" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G32" t="n">
         <v>70</v>
       </c>
       <c r="I32" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J32" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="33">
@@ -1354,28 +1354,28 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E33" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F33" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G33" t="n">
         <v>70</v>
       </c>
       <c r="I33" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J33" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="34">
@@ -1383,28 +1383,28 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E34" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F34" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G34" t="n">
         <v>70</v>
       </c>
       <c r="I34" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J34" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="35">
@@ -1412,28 +1412,28 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E35" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F35" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G35" t="n">
         <v>70</v>
       </c>
       <c r="I35" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J35" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="36">
@@ -1441,28 +1441,28 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E36" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F36" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G36" t="n">
         <v>70</v>
       </c>
       <c r="I36" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J36" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="37">
@@ -1470,28 +1470,28 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E37" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F37" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G37" t="n">
         <v>70</v>
       </c>
       <c r="I37" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J37" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="38">
@@ -1499,28 +1499,28 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E38" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F38" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G38" t="n">
         <v>70</v>
       </c>
       <c r="I38" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J38" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="39">
@@ -1528,28 +1528,28 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E39" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F39" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G39" t="n">
         <v>70</v>
       </c>
       <c r="I39" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J39" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="40">
@@ -1557,28 +1557,28 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E40" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F40" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G40" t="n">
         <v>70</v>
       </c>
       <c r="I40" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J40" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="41">
@@ -1586,28 +1586,28 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E41" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F41" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G41" t="n">
         <v>70</v>
       </c>
       <c r="I41" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J41" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="42">
@@ -1615,28 +1615,28 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E42" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F42" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G42" t="n">
         <v>70</v>
       </c>
       <c r="I42" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J42" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="43">
@@ -1644,28 +1644,28 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E43" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F43" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G43" t="n">
         <v>70</v>
       </c>
       <c r="I43" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J43" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="44">
@@ -1673,28 +1673,28 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E44" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F44" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G44" t="n">
         <v>70</v>
       </c>
       <c r="I44" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J44" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="45">
@@ -1702,28 +1702,28 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E45" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F45" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G45" t="n">
         <v>70</v>
       </c>
       <c r="I45" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J45" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="46">
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E46" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F46" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G46" t="n">
         <v>70</v>
       </c>
       <c r="I46" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J46" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="47">
@@ -1760,28 +1760,28 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E47" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F47" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G47" t="n">
         <v>70</v>
       </c>
       <c r="I47" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J47" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="48">
@@ -1789,28 +1789,28 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E48" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F48" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G48" t="n">
         <v>70</v>
       </c>
       <c r="I48" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J48" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="49">
@@ -1818,28 +1818,28 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E49" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F49" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G49" t="n">
         <v>70</v>
       </c>
       <c r="I49" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J49" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="50">
@@ -1847,57 +1847,57 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>69.56683863692008</v>
+        <v>77.37026329608943</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01859602732464842</v>
+        <v>0.02067791375605355</v>
       </c>
       <c r="E50" t="n">
-        <v>28.13539322953832</v>
+        <v>29.58755646205433</v>
       </c>
       <c r="F50" t="n">
-        <v>16.86460677046168</v>
+        <v>17.41244353794567</v>
       </c>
       <c r="G50" t="n">
         <v>70</v>
       </c>
       <c r="I50" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J50" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>74.51727991055327</v>
+        <v>76.49334512989775</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01892778439433798</v>
+        <v>0.02205310052557681</v>
       </c>
       <c r="E51" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F51" t="n">
-        <v>27.7977019285039</v>
+        <v>21.88735327036865</v>
       </c>
       <c r="G51" t="n">
         <v>30.4</v>
       </c>
       <c r="I51" t="n">
-        <v>5.1</v>
+        <v>25.3</v>
       </c>
       <c r="J51" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="52">
@@ -1905,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>74.51727991055327</v>
+        <v>76.49334512989775</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01892778439433798</v>
+        <v>0.02205310052557681</v>
       </c>
       <c r="E52" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F52" t="n">
-        <v>27.7977019285039</v>
+        <v>21.88735327036865</v>
       </c>
       <c r="G52" t="n">
         <v>50.6</v>
@@ -1926,7 +1926,7 @@
         <v>25.3</v>
       </c>
       <c r="J52" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="53">
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>74.79972299706317</v>
+        <v>76.1162882447925</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01872828799034638</v>
+        <v>0.02146568157452546</v>
       </c>
       <c r="E53" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F53" t="n">
-        <v>26.7977019285039</v>
+        <v>20.88735327036865</v>
       </c>
       <c r="G53" t="n">
         <v>50.6</v>
@@ -1955,7 +1955,7 @@
         <v>25.3</v>
       </c>
       <c r="J53" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="54">
@@ -1963,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>73.81588641557612</v>
+        <v>74.3574288654834</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01849086612389649</v>
+        <v>0.02194129067114008</v>
       </c>
       <c r="E54" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F54" t="n">
-        <v>25.7977019285039</v>
+        <v>19.88735327036865</v>
       </c>
       <c r="G54" t="n">
         <v>50.6</v>
@@ -1984,7 +1984,7 @@
         <v>25.3</v>
       </c>
       <c r="J54" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="55">
@@ -1992,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>71.55569977304654</v>
+        <v>74.17147846761195</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01821825389396247</v>
+        <v>0.02130142280070233</v>
       </c>
       <c r="E55" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F55" t="n">
-        <v>24.7977019285039</v>
+        <v>18.88735327036865</v>
       </c>
       <c r="G55" t="n">
         <v>50.6</v>
@@ -2013,7 +2013,7 @@
         <v>25.3</v>
       </c>
       <c r="J55" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="56">
@@ -2021,19 +2021,19 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>70.51843481563448</v>
+        <v>73.91996212085577</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01791252870546264</v>
+        <v>0.02064468361685567</v>
       </c>
       <c r="E56" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F56" t="n">
-        <v>23.7977019285039</v>
+        <v>17.88735327036865</v>
       </c>
       <c r="G56" t="n">
         <v>50.6</v>
@@ -2042,7 +2042,7 @@
         <v>25.3</v>
       </c>
       <c r="J56" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="57">
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>69.45398445063262</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01757536228090081</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E57" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F57" t="n">
-        <v>22.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G57" t="n">
         <v>50.6</v>
@@ -2071,7 +2071,7 @@
         <v>25.3</v>
       </c>
       <c r="J57" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="58">
@@ -2079,28 +2079,28 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>68.39635575585052</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01720878413123763</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E58" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F58" t="n">
-        <v>21.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G58" t="n">
-        <v>50.6</v>
+        <v>70</v>
       </c>
       <c r="I58" t="n">
         <v>25.3</v>
       </c>
       <c r="J58" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="59">
@@ -2108,28 +2108,28 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>67.37792644932372</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0168138707773004</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E59" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F59" t="n">
-        <v>20.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G59" t="n">
-        <v>50.6</v>
+        <v>70</v>
       </c>
       <c r="I59" t="n">
         <v>25.3</v>
       </c>
       <c r="J59" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="60">
@@ -2137,28 +2137,28 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>68.61696950804674</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01749782867879051</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E60" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F60" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G60" t="n">
-        <v>50.6</v>
+        <v>70</v>
       </c>
       <c r="I60" t="n">
         <v>25.3</v>
       </c>
       <c r="J60" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="61">
@@ -2166,28 +2166,28 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>68.61696950804674</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01749782867879051</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E61" t="n">
-        <v>22.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F61" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G61" t="n">
         <v>70</v>
       </c>
       <c r="I61" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J61" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="62">
@@ -2195,28 +2195,28 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>68.48155524320191</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01783912142254089</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E62" t="n">
-        <v>23.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F62" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G62" t="n">
         <v>70</v>
       </c>
       <c r="I62" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J62" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="63">
@@ -2224,28 +2224,28 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>66.21979346036038</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01934999253838579</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E63" t="n">
-        <v>24.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F63" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G63" t="n">
         <v>70</v>
       </c>
       <c r="I63" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J63" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="64">
@@ -2253,28 +2253,28 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E64" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F64" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G64" t="n">
         <v>70</v>
       </c>
       <c r="I64" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J64" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="65">
@@ -2282,28 +2282,28 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E65" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F65" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G65" t="n">
         <v>70</v>
       </c>
       <c r="I65" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J65" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="66">
@@ -2311,28 +2311,28 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E66" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F66" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G66" t="n">
         <v>70</v>
       </c>
       <c r="I66" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J66" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="67">
@@ -2340,28 +2340,28 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E67" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F67" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G67" t="n">
         <v>70</v>
       </c>
       <c r="I67" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J67" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="68">
@@ -2369,28 +2369,28 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E68" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F68" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G68" t="n">
         <v>70</v>
       </c>
       <c r="I68" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J68" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="69">
@@ -2398,28 +2398,28 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E69" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F69" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G69" t="n">
         <v>70</v>
       </c>
       <c r="I69" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J69" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="70">
@@ -2427,28 +2427,28 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E70" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F70" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G70" t="n">
         <v>70</v>
       </c>
       <c r="I70" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J70" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="71">
@@ -2456,28 +2456,28 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E71" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F71" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G71" t="n">
         <v>70</v>
       </c>
       <c r="I71" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J71" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="72">
@@ -2485,28 +2485,28 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E72" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F72" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G72" t="n">
         <v>70</v>
       </c>
       <c r="I72" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J72" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="73">
@@ -2514,28 +2514,28 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E73" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F73" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G73" t="n">
         <v>70</v>
       </c>
       <c r="I73" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J73" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="74">
@@ -2543,28 +2543,28 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E74" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F74" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G74" t="n">
         <v>70</v>
       </c>
       <c r="I74" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J74" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="75">
@@ -2572,28 +2572,28 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E75" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F75" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G75" t="n">
         <v>70</v>
       </c>
       <c r="I75" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J75" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="76">
@@ -2601,28 +2601,28 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E76" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F76" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G76" t="n">
         <v>70</v>
       </c>
       <c r="I76" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J76" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="77">
@@ -2630,28 +2630,28 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E77" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F77" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G77" t="n">
         <v>70</v>
       </c>
       <c r="I77" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J77" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="78">
@@ -2659,28 +2659,28 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E78" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F78" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G78" t="n">
         <v>70</v>
       </c>
       <c r="I78" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J78" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="79">
@@ -2688,28 +2688,28 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E79" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F79" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G79" t="n">
         <v>70</v>
       </c>
       <c r="I79" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J79" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="80">
@@ -2717,28 +2717,28 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E80" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F80" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G80" t="n">
         <v>70</v>
       </c>
       <c r="I80" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J80" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="81">
@@ -2746,28 +2746,28 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E81" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F81" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G81" t="n">
         <v>70</v>
       </c>
       <c r="I81" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J81" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="82">
@@ -2775,28 +2775,28 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E82" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F82" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G82" t="n">
         <v>70</v>
       </c>
       <c r="I82" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J82" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="83">
@@ -2804,28 +2804,28 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E83" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F83" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G83" t="n">
         <v>70</v>
       </c>
       <c r="I83" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J83" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="84">
@@ -2833,28 +2833,28 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E84" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F84" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G84" t="n">
         <v>70</v>
       </c>
       <c r="I84" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J84" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="85">
@@ -2862,28 +2862,28 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E85" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F85" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G85" t="n">
         <v>70</v>
       </c>
       <c r="I85" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J85" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="86">
@@ -2891,28 +2891,28 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E86" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F86" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G86" t="n">
         <v>70</v>
       </c>
       <c r="I86" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J86" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="87">
@@ -2920,28 +2920,28 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E87" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F87" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G87" t="n">
         <v>70</v>
       </c>
       <c r="I87" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J87" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="88">
@@ -2949,28 +2949,28 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E88" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F88" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G88" t="n">
         <v>70</v>
       </c>
       <c r="I88" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J88" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="89">
@@ -2978,28 +2978,28 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E89" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F89" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G89" t="n">
         <v>70</v>
       </c>
       <c r="I89" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J89" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="90">
@@ -3007,28 +3007,28 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E90" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F90" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G90" t="n">
         <v>70</v>
       </c>
       <c r="I90" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J90" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="91">
@@ -3036,28 +3036,28 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E91" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F91" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G91" t="n">
         <v>70</v>
       </c>
       <c r="I91" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J91" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="92">
@@ -3065,28 +3065,28 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E92" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F92" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G92" t="n">
         <v>70</v>
       </c>
       <c r="I92" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J92" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="93">
@@ -3094,28 +3094,28 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E93" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F93" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G93" t="n">
         <v>70</v>
       </c>
       <c r="I93" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J93" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="94">
@@ -3123,28 +3123,28 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E94" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F94" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G94" t="n">
         <v>70</v>
       </c>
       <c r="I94" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J94" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="95">
@@ -3152,28 +3152,28 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E95" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F95" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G95" t="n">
         <v>70</v>
       </c>
       <c r="I95" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J95" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="96">
@@ -3181,28 +3181,28 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E96" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F96" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G96" t="n">
         <v>70</v>
       </c>
       <c r="I96" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J96" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="97">
@@ -3210,28 +3210,28 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E97" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F97" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G97" t="n">
         <v>70</v>
       </c>
       <c r="I97" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J97" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="98">
@@ -3239,28 +3239,28 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E98" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F98" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G98" t="n">
         <v>70</v>
       </c>
       <c r="I98" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J98" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="99">
@@ -3268,28 +3268,28 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E99" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F99" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G99" t="n">
         <v>70</v>
       </c>
       <c r="I99" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J99" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="100">
@@ -3297,52 +3297,31 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>66.62900655895577</v>
+        <v>74.77268231515475</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01968200932523632</v>
+        <v>0.01997108857868116</v>
       </c>
       <c r="E100" t="n">
-        <v>25.2022980714961</v>
+        <v>28.11264672963135</v>
       </c>
       <c r="F100" t="n">
-        <v>19.7977019285039</v>
+        <v>16.88735327036865</v>
       </c>
       <c r="G100" t="n">
         <v>70</v>
       </c>
       <c r="I100" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J100" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>5</v>
-      </c>
-      <c r="B101" t="n">
-        <v>74.77396984343247</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.01920321569109516</v>
-      </c>
-      <c r="E101" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F101" t="n">
-        <v>26.81265184883662</v>
-      </c>
-      <c r="G101" t="n">
-        <v>30.4</v>
-      </c>
       <c r="I101" t="n">
         <v>5.1</v>
       </c>
@@ -3351,27 +3330,6 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>0</v>
-      </c>
-      <c r="B102" t="n">
-        <v>74.77396984343247</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.01920321569109516</v>
-      </c>
-      <c r="E102" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F102" t="n">
-        <v>26.81265184883662</v>
-      </c>
-      <c r="G102" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I102" t="n">
         <v>25.3</v>
       </c>
@@ -3380,27 +3338,6 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>72.4592380843546</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.01893794783537487</v>
-      </c>
-      <c r="E103" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F103" t="n">
-        <v>25.81265184883662</v>
-      </c>
-      <c r="G103" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I103" t="n">
         <v>25.3</v>
       </c>
@@ -3409,27 +3346,6 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>71.4023292037174</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.01863866845821483</v>
-      </c>
-      <c r="E104" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F104" t="n">
-        <v>24.81265184883662</v>
-      </c>
-      <c r="G104" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I104" t="n">
         <v>25.3</v>
       </c>
@@ -3438,27 +3354,6 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>70.33109189518375</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.01830741906291761</v>
-      </c>
-      <c r="E105" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F105" t="n">
-        <v>23.81265184883662</v>
-      </c>
-      <c r="G105" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I105" t="n">
         <v>25.3</v>
       </c>
@@ -3467,27 +3362,6 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>69.2650746697299</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.01794561930429212</v>
-      </c>
-      <c r="E106" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F106" t="n">
-        <v>22.81265184883662</v>
-      </c>
-      <c r="G106" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I106" t="n">
         <v>25.3</v>
       </c>
@@ -3496,27 +3370,6 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>68.22238225949937</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.01755475724070962</v>
-      </c>
-      <c r="E107" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F107" t="n">
-        <v>21.81265184883662</v>
-      </c>
-      <c r="G107" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I107" t="n">
         <v>25.3</v>
       </c>
@@ -3525,27 +3378,6 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>69.38354338205878</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.01831335638434154</v>
-      </c>
-      <c r="E108" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F108" t="n">
-        <v>20.81265184883662</v>
-      </c>
-      <c r="G108" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I108" t="n">
         <v>25.3</v>
       </c>
@@ -3554,27 +3386,6 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>68.4932381303782</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.01784154477382591</v>
-      </c>
-      <c r="E109" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F109" t="n">
-        <v>19.81265184883662</v>
-      </c>
-      <c r="G109" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I109" t="n">
         <v>25.3</v>
       </c>
@@ -3583,56 +3394,14 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>66.39535631705556</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.01847344298695351</v>
-      </c>
-      <c r="E110" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F110" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G110" t="n">
-        <v>50.6</v>
-      </c>
       <c r="I110" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
       <c r="J110" t="n">
         <v>25.3</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>66.39535631705556</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.01847344298695351</v>
-      </c>
-      <c r="E111" t="n">
-        <v>23.18734815116338</v>
-      </c>
-      <c r="F111" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G111" t="n">
-        <v>70</v>
-      </c>
       <c r="I111" t="n">
         <v>44.7</v>
       </c>
@@ -3641,27 +3410,6 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>65.62292862530592</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.01881625347713649</v>
-      </c>
-      <c r="E112" t="n">
-        <v>24.18734815116338</v>
-      </c>
-      <c r="F112" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G112" t="n">
-        <v>70</v>
-      </c>
       <c r="I112" t="n">
         <v>44.7</v>
       </c>
@@ -3670,27 +3418,6 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>66.27914149710416</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.01913022975023691</v>
-      </c>
-      <c r="E113" t="n">
-        <v>25.18734815116338</v>
-      </c>
-      <c r="F113" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G113" t="n">
-        <v>70</v>
-      </c>
       <c r="I113" t="n">
         <v>44.7</v>
       </c>
@@ -3699,27 +3426,6 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>0</v>
-      </c>
-      <c r="B114" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E114" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F114" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G114" t="n">
-        <v>70</v>
-      </c>
       <c r="I114" t="n">
         <v>44.7</v>
       </c>
@@ -3728,27 +3434,6 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E115" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F115" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G115" t="n">
-        <v>70</v>
-      </c>
       <c r="I115" t="n">
         <v>44.7</v>
       </c>
@@ -3757,27 +3442,6 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E116" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F116" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G116" t="n">
-        <v>70</v>
-      </c>
       <c r="I116" t="n">
         <v>44.7</v>
       </c>
@@ -3786,27 +3450,6 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>0</v>
-      </c>
-      <c r="B117" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E117" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F117" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G117" t="n">
-        <v>70</v>
-      </c>
       <c r="I117" t="n">
         <v>44.7</v>
       </c>
@@ -3815,27 +3458,6 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E118" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F118" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G118" t="n">
-        <v>70</v>
-      </c>
       <c r="I118" t="n">
         <v>44.7</v>
       </c>
@@ -3844,27 +3466,6 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E119" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F119" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G119" t="n">
-        <v>70</v>
-      </c>
       <c r="I119" t="n">
         <v>44.7</v>
       </c>
@@ -3873,27 +3474,6 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>0</v>
-      </c>
-      <c r="B120" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E120" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F120" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G120" t="n">
-        <v>70</v>
-      </c>
       <c r="I120" t="n">
         <v>44.7</v>
       </c>
@@ -3902,27 +3482,6 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E121" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F121" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G121" t="n">
-        <v>70</v>
-      </c>
       <c r="I121" t="n">
         <v>44.7</v>
       </c>
@@ -3931,27 +3490,6 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>0</v>
-      </c>
-      <c r="B122" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E122" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F122" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G122" t="n">
-        <v>70</v>
-      </c>
       <c r="I122" t="n">
         <v>44.7</v>
       </c>
@@ -3960,27 +3498,6 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>0</v>
-      </c>
-      <c r="B123" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E123" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F123" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G123" t="n">
-        <v>70</v>
-      </c>
       <c r="I123" t="n">
         <v>44.7</v>
       </c>
@@ -3989,27 +3506,6 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>0</v>
-      </c>
-      <c r="B124" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E124" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F124" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G124" t="n">
-        <v>70</v>
-      </c>
       <c r="I124" t="n">
         <v>44.7</v>
       </c>
@@ -4018,27 +3514,6 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>0</v>
-      </c>
-      <c r="B125" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E125" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F125" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G125" t="n">
-        <v>70</v>
-      </c>
       <c r="I125" t="n">
         <v>44.7</v>
       </c>
@@ -4047,27 +3522,6 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>0</v>
-      </c>
-      <c r="B126" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E126" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F126" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G126" t="n">
-        <v>70</v>
-      </c>
       <c r="I126" t="n">
         <v>44.7</v>
       </c>
@@ -4076,27 +3530,6 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>0</v>
-      </c>
-      <c r="B127" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E127" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F127" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G127" t="n">
-        <v>70</v>
-      </c>
       <c r="I127" t="n">
         <v>44.7</v>
       </c>
@@ -4105,27 +3538,6 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>0</v>
-      </c>
-      <c r="B128" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E128" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F128" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G128" t="n">
-        <v>70</v>
-      </c>
       <c r="I128" t="n">
         <v>44.7</v>
       </c>
@@ -4134,27 +3546,6 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E129" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F129" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G129" t="n">
-        <v>70</v>
-      </c>
       <c r="I129" t="n">
         <v>44.7</v>
       </c>
@@ -4163,27 +3554,6 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>0</v>
-      </c>
-      <c r="B130" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E130" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F130" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G130" t="n">
-        <v>70</v>
-      </c>
       <c r="I130" t="n">
         <v>44.7</v>
       </c>
@@ -4192,27 +3562,6 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>0</v>
-      </c>
-      <c r="B131" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E131" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F131" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G131" t="n">
-        <v>70</v>
-      </c>
       <c r="I131" t="n">
         <v>44.7</v>
       </c>
@@ -4221,27 +3570,6 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E132" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F132" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G132" t="n">
-        <v>70</v>
-      </c>
       <c r="I132" t="n">
         <v>44.7</v>
       </c>
@@ -4250,27 +3578,6 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>0</v>
-      </c>
-      <c r="B133" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E133" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F133" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G133" t="n">
-        <v>70</v>
-      </c>
       <c r="I133" t="n">
         <v>44.7</v>
       </c>
@@ -4279,27 +3586,6 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E134" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F134" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G134" t="n">
-        <v>70</v>
-      </c>
       <c r="I134" t="n">
         <v>44.7</v>
       </c>
@@ -4308,27 +3594,6 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E135" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F135" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G135" t="n">
-        <v>70</v>
-      </c>
       <c r="I135" t="n">
         <v>44.7</v>
       </c>
@@ -4337,27 +3602,6 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E136" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F136" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G136" t="n">
-        <v>70</v>
-      </c>
       <c r="I136" t="n">
         <v>44.7</v>
       </c>
@@ -4366,27 +3610,6 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E137" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F137" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G137" t="n">
-        <v>70</v>
-      </c>
       <c r="I137" t="n">
         <v>44.7</v>
       </c>
@@ -4395,27 +3618,6 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E138" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F138" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G138" t="n">
-        <v>70</v>
-      </c>
       <c r="I138" t="n">
         <v>44.7</v>
       </c>
@@ -4424,27 +3626,6 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E139" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F139" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G139" t="n">
-        <v>70</v>
-      </c>
       <c r="I139" t="n">
         <v>44.7</v>
       </c>
@@ -4453,27 +3634,6 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>0</v>
-      </c>
-      <c r="B140" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E140" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F140" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G140" t="n">
-        <v>70</v>
-      </c>
       <c r="I140" t="n">
         <v>44.7</v>
       </c>
@@ -4482,27 +3642,6 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>0</v>
-      </c>
-      <c r="B141" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E141" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F141" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G141" t="n">
-        <v>70</v>
-      </c>
       <c r="I141" t="n">
         <v>44.7</v>
       </c>
@@ -4511,27 +3650,6 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>0</v>
-      </c>
-      <c r="B142" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E142" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F142" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G142" t="n">
-        <v>70</v>
-      </c>
       <c r="I142" t="n">
         <v>44.7</v>
       </c>
@@ -4540,27 +3658,6 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>0</v>
-      </c>
-      <c r="B143" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E143" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F143" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G143" t="n">
-        <v>70</v>
-      </c>
       <c r="I143" t="n">
         <v>44.7</v>
       </c>
@@ -4569,27 +3666,6 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>0</v>
-      </c>
-      <c r="B144" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E144" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F144" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G144" t="n">
-        <v>70</v>
-      </c>
       <c r="I144" t="n">
         <v>44.7</v>
       </c>
@@ -4598,27 +3674,6 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>0</v>
-      </c>
-      <c r="B145" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E145" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F145" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G145" t="n">
-        <v>70</v>
-      </c>
       <c r="I145" t="n">
         <v>44.7</v>
       </c>
@@ -4627,27 +3682,6 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>0</v>
-      </c>
-      <c r="B146" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E146" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F146" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G146" t="n">
-        <v>70</v>
-      </c>
       <c r="I146" t="n">
         <v>44.7</v>
       </c>
@@ -4656,27 +3690,6 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>0</v>
-      </c>
-      <c r="B147" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E147" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F147" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G147" t="n">
-        <v>70</v>
-      </c>
       <c r="I147" t="n">
         <v>44.7</v>
       </c>
@@ -4685,27 +3698,6 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>0</v>
-      </c>
-      <c r="B148" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E148" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F148" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G148" t="n">
-        <v>70</v>
-      </c>
       <c r="I148" t="n">
         <v>44.7</v>
       </c>
@@ -4714,27 +3706,6 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>0</v>
-      </c>
-      <c r="B149" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E149" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F149" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G149" t="n">
-        <v>70</v>
-      </c>
       <c r="I149" t="n">
         <v>44.7</v>
       </c>
@@ -4743,31 +3714,1210 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>0</v>
-      </c>
-      <c r="B150" t="n">
-        <v>67.6566426967732</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.01941276816558124</v>
-      </c>
-      <c r="E150" t="n">
-        <v>26.18734815116338</v>
-      </c>
-      <c r="F150" t="n">
-        <v>18.81265184883662</v>
-      </c>
-      <c r="G150" t="n">
-        <v>70</v>
-      </c>
       <c r="I150" t="n">
         <v>44.7</v>
       </c>
       <c r="J150" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="I151" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="I152" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J152" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="I153" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J153" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="I154" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="I155" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="I156" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="I157" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="I158" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="I159" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="I160" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="I161" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="I162" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="I163" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="I164" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J164" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="I165" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J165" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="I166" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="I167" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="I168" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="I169" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="I170" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J170" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="I171" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J171" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="I172" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="I173" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J173" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="I174" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J174" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="I175" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J175" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="I176" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J176" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="I177" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J177" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="I178" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J178" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="I179" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J179" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="I180" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J180" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="I181" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J181" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="I182" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J182" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="I183" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J183" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="I184" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J184" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="I185" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J185" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="I186" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J186" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="I187" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J187" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="I188" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J188" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="I189" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J189" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="I190" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J190" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="I191" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J191" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="I192" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J192" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="I193" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J193" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="I194" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J194" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="I195" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J195" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="I196" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J196" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="I197" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J197" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="I198" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J198" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="I199" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J199" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="I200" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J200" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="I201" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="I202" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J202" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="I203" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J203" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="I204" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J204" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="I205" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J205" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="I206" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J206" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="I207" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J207" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="I208" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J208" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="I209" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J209" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="I210" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J210" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="I211" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J211" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="I212" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J212" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="I213" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J213" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="I214" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J214" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="I215" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J215" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="I216" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J216" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="I217" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J217" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="I218" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J218" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="I219" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J219" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="I220" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J220" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="I221" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J221" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="I222" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J222" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="I223" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J223" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="I224" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J224" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="I225" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J225" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="I226" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J226" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="I227" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J227" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="I228" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J228" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="I229" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J229" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="I230" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J230" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="I231" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J231" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="I232" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J232" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="I233" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J233" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="I234" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J234" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="I235" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J235" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="I236" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J236" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="I237" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J237" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="I238" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J238" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="I239" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J239" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="I240" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J240" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="I241" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J241" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="I242" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J242" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="I243" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J243" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="I244" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J244" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="I245" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J245" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="I246" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J246" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="I247" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J247" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="I248" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J248" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="I249" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J249" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="I250" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J250" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="I251" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="I252" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J252" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="I253" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J253" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="I254" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J254" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="I255" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J255" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="I256" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J256" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="I257" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J257" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="I258" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J258" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="I259" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J259" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="I260" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J260" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="I261" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J261" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="I262" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J262" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="I263" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J263" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="I264" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J264" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="I265" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J265" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="I266" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J266" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="I267" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J267" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="I268" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J268" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="I269" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J269" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="I270" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J270" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="I271" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J271" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="I272" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J272" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="I273" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J273" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="I274" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J274" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="I275" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J275" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="I276" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J276" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="I277" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J277" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="I278" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J278" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="I279" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J279" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="I280" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J280" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="I281" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J281" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="I282" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J282" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="I283" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J283" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="I284" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J284" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="I285" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J285" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="I286" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J286" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="I287" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J287" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="I288" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J288" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="I289" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J289" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="I290" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J290" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="I291" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J291" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="I292" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J292" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="I293" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J293" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="I294" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J294" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="I295" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J295" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="I296" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J296" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="I297" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J297" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="I298" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J298" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="I299" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J299" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="I300" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J300" t="n">
         <v>25.3</v>
       </c>
     </row>
